--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CD48D1-5E06-48B0-A6FC-953248CAE106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A0464A-1438-4C5D-98F7-9DB67A2654FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="-16110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,74 +41,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생년월일(주민등록번호 앞 6자리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 성동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9065-2933</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정우용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 동대문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5590-0680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문정현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-6471-6152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이영준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 성북구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8238-4239</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김재현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 송파구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9032-3035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안재현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,101 +73,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-9294-1687</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정준섭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기도 성남시 분당구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2045-9405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김신정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 송파구</t>
-  </si>
-  <si>
-    <t>010-4034-1142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정혜린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-3088-3954</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9429-1997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5168-2235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도 의왕시 포일동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정지윤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 서초구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5189-4113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이찬호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울시 강서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2605-7324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이도훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기도 부천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5326-0676</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 관악구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5795-2740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한종호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,67 +134,6 @@
   </si>
   <si>
     <t>서지영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7997-6947</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9735-8315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3560-3155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-6358-9975</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 서대문구</t>
-  </si>
-  <si>
-    <t>서울시 서대문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8291-2155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 은평구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9387-7694</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3455-5017</t>
-  </si>
-  <si>
-    <t>경기도 성남시 수정구</t>
-  </si>
-  <si>
-    <t>010-8719-1158</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 광진구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-4537-8969</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,12 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -741,600 +555,372 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="7" width="36.25" customWidth="1"/>
+    <col min="3" max="4" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="3">
-        <v>970703</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>961230</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>960301</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
-        <v>970201</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="3">
         <v>1.5</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4">
-        <v>960311</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
         <v>1.5</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>971016</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>970120</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>960503</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
         <v>2.5</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>940511</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
         <v>2.5</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>961108</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3">
         <v>2.5</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>920115</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>970304</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
-        <v>971104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3">
-        <v>970711</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
-        <v>950506</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
-        <v>980111</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
-        <v>961206</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
-        <v>980427</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4">
         <v>3</v>
       </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>910327</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="G23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4">
-        <v>991025</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="4">
         <v>3</v>
       </c>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="3">
-        <v>980518</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="3">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
-    <sortCondition ref="G2:G25"/>
-    <sortCondition ref="F2:F25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+    <sortCondition ref="D2:D25"/>
+    <sortCondition ref="C2:C25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A0464A-1438-4C5D-98F7-9DB67A2654FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4192281-BAF9-4263-8AFB-EE8A1ED5C326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -813,10 +813,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4192281-BAF9-4263-8AFB-EE8A1ED5C326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D14AE1-A01C-4C45-9105-7EE49DCD5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,10 +813,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D14AE1-A01C-4C45-9105-7EE49DCD5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FA1ABD-77DD-463C-9CD6-B6DCF267C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,15 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한종호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한지윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -555,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,15 +603,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -627,25 +619,25 @@
       <c r="A5" s="3">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -653,13 +645,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -667,10 +659,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -681,10 +673,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -737,24 +729,24 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -765,10 +757,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -779,38 +771,38 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -821,10 +813,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -835,13 +827,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -849,10 +841,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -863,13 +855,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -877,50 +869,22 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
-    <sortCondition ref="D2:D25"/>
-    <sortCondition ref="C2:C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition ref="D2:D23"/>
+    <sortCondition ref="C2:C23"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FA1ABD-77DD-463C-9CD6-B6DCF267C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992FA46-58E1-4A90-8879-2F616788DAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4992FA46-58E1-4A90-8879-2F616788DAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C65323-3F28-4E6A-88DD-AE3F7444A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
       <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -729,13 +729,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -743,24 +743,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -771,15 +771,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
     </row>

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C65323-3F28-4E6A-88DD-AE3F7444A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F500AD-4667-40B4-9F1B-2825F81E8483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>

--- a/dataset/roster.xlsx
+++ b/dataset/roster.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F500AD-4667-40B4-9F1B-2825F81E8483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E1668-BF89-4B99-9E54-890A9D3E801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10060" yWindow="-16110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,10 +575,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -589,24 +589,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -617,52 +617,52 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -701,13 +701,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -729,41 +729,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -771,13 +771,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -785,41 +785,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -827,13 +827,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -847,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="4">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -885,6 +885,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
     <sortCondition ref="D2:D23"/>
     <sortCondition ref="C2:C23"/>
+    <sortCondition ref="B2:B23"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
